--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -403,6 +403,74 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -286,7 +286,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -294,6 +294,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="105">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,13 +800,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -817,6 +818,9 @@
         <is>
           <t>Colorado</t>
         </is>
+      </c>
+      <c r="C1" s="7" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -936,7 +940,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1854,9 +1858,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2691,9 +2695,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/BMRESP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/BMRESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B28F02-3784-0742-B623-619E3D6D0FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCFB259-6C92-7749-96AE-E1544BFC441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ZEV Waiver States" sheetId="2" r:id="rId2"/>
-    <sheet name="IRA RMI Analysis 30D" sheetId="5" r:id="rId3"/>
+    <sheet name="IRA Calculations" sheetId="5" r:id="rId3"/>
     <sheet name="BMRESP-passenger" sheetId="3" r:id="rId4"/>
     <sheet name="BMRESP-freight" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -37,92 +37,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
   <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>California Air Resources Board (CARB)</t>
+  </si>
+  <si>
+    <t>California's Advanced Clean Cars Midterm Review Report</t>
+  </si>
+  <si>
+    <t>Techical report: https://www.arb.ca.gov/msprog/acc/mtr/acc_mtr_finalreport_full.pdf</t>
+  </si>
+  <si>
+    <t>Data: https://www.arb.ca.gov/msprog/zevprog/zevcalculator/zevcalculator_2017.xlsx</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>California Zero Emission Vehicle (ZEV) mandate calls for 15% of sales to be zero emission vehicles by 2025.  The ZEV mandate reaches a plateau in that year, and so the required percentage is held constant thereafter.</t>
+  </si>
+  <si>
+    <t>However, the number of full ZEVs required is expected to be substantially less than 15% in 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We pull data from CARB's anticipated compliance pathway to represent the required ZEV uptake expected from the mandate. </t>
+  </si>
+  <si>
+    <t>"The reduction in the estimated effect of the standard is primarily due to two factors: the range of EVs has increased far faster than anticipated (increasing the ZEV credits earned per vehicle), and the current stockpile of ZEV credits from early compliance with the regulation which can be used in place of future ZEV sales."</t>
+  </si>
+  <si>
+    <t>http://blog.ucsusa.org/dave-reichmuth/what-will-it-take-for-automakers-to-meet-californias-ev-requirements-not-as-much-as-you-might-think</t>
+  </si>
+  <si>
+    <t>Waiver states (as of August 2019)</t>
+  </si>
+  <si>
+    <t>Connecticut, Maine, Maryland, Massachusetts, New Jersey, New York, Oregon, Rhode Island, Vermont, Colorado, Washington</t>
+  </si>
+  <si>
+    <t>https://www.edf.org/media/colorado-becomes-first-state-central-us-adopt-zero-emission-vehicle-standards</t>
+  </si>
+  <si>
+    <t>&lt;- State</t>
+  </si>
+  <si>
+    <t>Lookup LDV</t>
+  </si>
+  <si>
+    <t>LDVs ZEV</t>
+  </si>
+  <si>
+    <t>LDV no ZEV</t>
+  </si>
+  <si>
+    <t>State Name</t>
+  </si>
+  <si>
+    <t>ZEV?</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>ZEV Waiver States</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>California Air Resources Board (CARB)</t>
-  </si>
-  <si>
-    <t>California's Advanced Clean Cars Midterm Review Report</t>
-  </si>
-  <si>
-    <t>Techical report: https://www.arb.ca.gov/msprog/acc/mtr/acc_mtr_finalreport_full.pdf</t>
-  </si>
-  <si>
-    <t>Data: https://www.arb.ca.gov/msprog/zevprog/zevcalculator/zevcalculator_2017.xlsx</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>California Zero Emission Vehicle (ZEV) mandate calls for 15% of sales to be zero emission vehicles by 2025.  The ZEV mandate reaches a plateau in that year, and so the required percentage is held constant thereafter.</t>
-  </si>
-  <si>
-    <t>However, the number of full ZEVs required is expected to be substantially less than 15% in 2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We pull data from CARB's anticipated compliance pathway to represent the required ZEV uptake expected from the mandate. </t>
-  </si>
-  <si>
-    <t>"The reduction in the estimated effect of the standard is primarily due to two factors: the range of EVs has increased far faster than anticipated (increasing the ZEV credits earned per vehicle), and the current stockpile of ZEV credits from early compliance with the regulation which can be used in place of future ZEV sales."</t>
-  </si>
-  <si>
-    <t>http://blog.ucsusa.org/dave-reichmuth/what-will-it-take-for-automakers-to-meet-californias-ev-requirements-not-as-much-as-you-might-think</t>
-  </si>
-  <si>
-    <t>Waiver states (as of August 2019)</t>
-  </si>
-  <si>
-    <t>Connecticut, Maine, Maryland, Massachusetts, New Jersey, New York, Oregon, Rhode Island, Vermont, Colorado, Washington</t>
-  </si>
-  <si>
-    <t>https://www.edf.org/media/colorado-becomes-first-state-central-us-adopt-zero-emission-vehicle-standards</t>
-  </si>
-  <si>
-    <t>&lt;- State</t>
-  </si>
-  <si>
-    <t>Lookup LDV</t>
-  </si>
-  <si>
-    <t>LDVs ZEV</t>
-  </si>
-  <si>
-    <t>LDV no ZEV</t>
-  </si>
-  <si>
-    <t>State Name</t>
-  </si>
-  <si>
-    <t>ZEV?</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>ZEV Waiver States</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
@@ -171,9 +174,6 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>Mississippi</t>
   </si>
   <si>
@@ -273,6 +273,21 @@
     <t>motorbikes</t>
   </si>
   <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>13401 </t>
+  </si>
+  <si>
+    <t>Clean Vehicle Credit </t>
+  </si>
+  <si>
+    <t>Transportation </t>
+  </si>
+  <si>
+    <t>PRE IRA</t>
+  </si>
+  <si>
     <t>Weighted average BEV sales share</t>
   </si>
   <si>
@@ -291,22 +306,10 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>Freight</t>
-  </si>
-  <si>
-    <t>Use Energy Innovation's National Analysis</t>
-  </si>
-  <si>
-    <t>BAU</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>With IRA</t>
+    <t>RMI analysis on EV growth w/ IRA credits</t>
+  </si>
+  <si>
+    <t>WITH IRA</t>
   </si>
 </sst>
 </file>
@@ -416,9 +419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -485,54 +487,6 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -645,7 +599,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="104"/>
@@ -653,15 +607,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="105" applyFont="1"/>
   </cellXfs>
   <cellStyles count="106">
@@ -783,55 +732,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>147982</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982F8C4A-D92C-2CC7-EA74-EC2A0072EAEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="63500" y="2209800"/>
-          <a:ext cx="7772400" cy="2891182"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6">
-        <v>44307</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1255,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1787,7 +1687,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1795,7 +1695,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1803,62 +1703,62 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1866,7 +1766,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1874,7 +1774,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1882,12 +1782,12 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2049,642 +1949,1444 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D27B37-3466-264E-9173-AEEAC491654F}">
-  <dimension ref="A1:AD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DE4D67-F32D-2346-B400-45159B0B5D2D}">
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:AD30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" t="s">
+    <row r="1" spans="1:36">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6">
+        <v>2017</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6">
+        <v>2019</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+      <c r="G6">
+        <v>2021</v>
+      </c>
+      <c r="H6">
+        <v>2022</v>
+      </c>
+      <c r="I6">
+        <v>2023</v>
+      </c>
+      <c r="J6">
+        <v>2024</v>
+      </c>
+      <c r="K6">
+        <v>2025</v>
+      </c>
+      <c r="L6">
+        <v>2026</v>
+      </c>
+      <c r="M6">
+        <v>2027</v>
+      </c>
+      <c r="N6">
+        <v>2028</v>
+      </c>
+      <c r="O6">
+        <v>2029</v>
+      </c>
+      <c r="P6">
+        <v>2030</v>
+      </c>
+      <c r="Q6">
+        <v>2031</v>
+      </c>
+      <c r="R6">
+        <v>2032</v>
+      </c>
+      <c r="S6">
+        <v>2033</v>
+      </c>
+      <c r="T6">
+        <v>2034</v>
+      </c>
+      <c r="U6">
+        <v>2035</v>
+      </c>
+      <c r="V6">
+        <v>2036</v>
+      </c>
+      <c r="W6">
+        <v>2037</v>
+      </c>
+      <c r="X6">
+        <v>2038</v>
+      </c>
+      <c r="Y6">
+        <v>2039</v>
+      </c>
+      <c r="Z6">
+        <v>2040</v>
+      </c>
+      <c r="AA6">
+        <v>2041</v>
+      </c>
+      <c r="AB6">
+        <v>2042</v>
+      </c>
+      <c r="AC6">
+        <v>2043</v>
+      </c>
+      <c r="AD6">
+        <v>2044</v>
+      </c>
+      <c r="AE6">
+        <v>2045</v>
+      </c>
+      <c r="AF6">
+        <v>2046</v>
+      </c>
+      <c r="AG6">
+        <v>2047</v>
+      </c>
+      <c r="AH6">
+        <v>2048</v>
+      </c>
+      <c r="AI6">
+        <v>2049</v>
+      </c>
+      <c r="AJ6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <f>'ZEV Waiver States'!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>'ZEV Waiver States'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>'ZEV Waiver States'!D3</f>
+        <v>2.3355179562388431E-2</v>
+      </c>
+      <c r="E7">
+        <f>'ZEV Waiver States'!E3</f>
+        <v>3.0832276168732849E-2</v>
+      </c>
+      <c r="F7">
+        <f>'ZEV Waiver States'!F3</f>
+        <v>4.2396225289574353E-2</v>
+      </c>
+      <c r="G7">
+        <f>'ZEV Waiver States'!G3</f>
+        <v>5.0699810286784948E-2</v>
+      </c>
+      <c r="H7">
+        <f>'ZEV Waiver States'!H3</f>
+        <v>5.6578478623361093E-2</v>
+      </c>
+      <c r="I7">
+        <f>'ZEV Waiver States'!I3</f>
+        <v>6.3298146163166397E-2</v>
+      </c>
+      <c r="J7">
+        <f>'ZEV Waiver States'!J3</f>
+        <v>6.9598265212907795E-2</v>
+      </c>
+      <c r="K7">
+        <f>'ZEV Waiver States'!K3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="L7">
+        <f>'ZEV Waiver States'!L3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="M7">
+        <f>'ZEV Waiver States'!M3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="N7">
+        <f>'ZEV Waiver States'!N3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="O7">
+        <f>'ZEV Waiver States'!O3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="P7">
+        <f>'ZEV Waiver States'!P3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="Q7">
+        <f>'ZEV Waiver States'!Q3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="R7">
+        <f>'ZEV Waiver States'!R3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="S7">
+        <f>'ZEV Waiver States'!S3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="T7">
+        <f>'ZEV Waiver States'!T3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="U7">
+        <f>'ZEV Waiver States'!U3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="V7">
+        <f>'ZEV Waiver States'!V3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="W7">
+        <f>'ZEV Waiver States'!W3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="X7">
+        <f>'ZEV Waiver States'!X3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="Y7">
+        <f>'ZEV Waiver States'!Y3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="Z7">
+        <f>'ZEV Waiver States'!Z3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AA7">
+        <f>'ZEV Waiver States'!AA3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AB7">
+        <f>'ZEV Waiver States'!AB3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AC7">
+        <f>'ZEV Waiver States'!AC3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AD7">
+        <f>'ZEV Waiver States'!AD3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AE7">
+        <f>'ZEV Waiver States'!AE3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AF7">
+        <f>'ZEV Waiver States'!AF3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AG7">
+        <f>'ZEV Waiver States'!AG3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AH7">
+        <f>'ZEV Waiver States'!AH3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AI7">
+        <f>'ZEV Waiver States'!AI3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="AJ7">
+        <f>'ZEV Waiver States'!AJ3</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15">
+        <v>2024</v>
+      </c>
+      <c r="E15">
+        <v>2025</v>
+      </c>
+      <c r="F15">
+        <v>2026</v>
+      </c>
+      <c r="G15">
+        <v>2027</v>
+      </c>
+      <c r="H15">
+        <v>2028</v>
+      </c>
+      <c r="I15">
+        <v>2029</v>
+      </c>
+      <c r="J15">
+        <v>2030</v>
+      </c>
+      <c r="K15">
+        <v>2031</v>
+      </c>
+      <c r="L15">
+        <v>2032</v>
+      </c>
+      <c r="M15">
+        <v>2033</v>
+      </c>
+      <c r="N15">
+        <v>2034</v>
+      </c>
+      <c r="O15">
+        <v>2035</v>
+      </c>
+      <c r="P15">
+        <v>2036</v>
+      </c>
+      <c r="Q15">
+        <v>2037</v>
+      </c>
+      <c r="R15">
+        <v>2038</v>
+      </c>
+      <c r="S15">
+        <v>2039</v>
+      </c>
+      <c r="T15">
+        <v>2040</v>
+      </c>
+      <c r="U15">
+        <v>2041</v>
+      </c>
+      <c r="V15">
+        <v>2042</v>
+      </c>
+      <c r="W15">
+        <v>2043</v>
+      </c>
+      <c r="X15">
+        <v>2044</v>
+      </c>
+      <c r="Y15">
+        <v>2045</v>
+      </c>
+      <c r="Z15">
+        <v>2046</v>
+      </c>
+      <c r="AA15">
+        <v>2047</v>
+      </c>
+      <c r="AB15">
+        <v>2048</v>
+      </c>
+      <c r="AC15">
+        <v>2049</v>
+      </c>
+      <c r="AD15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="B16" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="9" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="T20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="V20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="X20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
+      <c r="B24">
+        <v>2016</v>
+      </c>
+      <c r="C24">
+        <v>2017</v>
+      </c>
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24">
+        <v>2020</v>
+      </c>
+      <c r="G24">
+        <v>2021</v>
+      </c>
+      <c r="H24">
         <v>2022</v>
       </c>
-      <c r="C2" s="8">
+      <c r="I24">
         <v>2023</v>
       </c>
-      <c r="D2" s="8">
+      <c r="J24">
         <v>2024</v>
       </c>
-      <c r="E2" s="8">
+      <c r="K24">
         <v>2025</v>
       </c>
-      <c r="F2" s="8">
+      <c r="L24">
         <v>2026</v>
       </c>
-      <c r="G2" s="8">
+      <c r="M24">
         <v>2027</v>
       </c>
-      <c r="H2" s="8">
+      <c r="N24">
         <v>2028</v>
       </c>
-      <c r="I2" s="8">
+      <c r="O24">
         <v>2029</v>
       </c>
-      <c r="J2" s="8">
+      <c r="P24">
         <v>2030</v>
       </c>
-      <c r="K2" s="8">
+      <c r="Q24">
         <v>2031</v>
       </c>
-      <c r="L2" s="8">
+      <c r="R24">
         <v>2032</v>
       </c>
-      <c r="M2" s="9">
+      <c r="S24">
         <v>2033</v>
       </c>
-      <c r="N2" s="9">
+      <c r="T24">
         <v>2034</v>
       </c>
-      <c r="O2" s="9">
+      <c r="U24">
         <v>2035</v>
       </c>
-      <c r="P2" s="9">
+      <c r="V24">
         <v>2036</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="W24">
         <v>2037</v>
       </c>
-      <c r="R2" s="9">
+      <c r="X24">
         <v>2038</v>
       </c>
-      <c r="S2" s="9">
+      <c r="Y24">
         <v>2039</v>
       </c>
-      <c r="T2" s="9">
+      <c r="Z24">
         <v>2040</v>
       </c>
-      <c r="U2" s="9">
+      <c r="AA24">
         <v>2041</v>
       </c>
-      <c r="V2" s="9">
+      <c r="AB24">
         <v>2042</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AC24">
         <v>2043</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AD24">
         <v>2044</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="AE24">
         <v>2045</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="AF24">
         <v>2046</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AG24">
         <v>2047</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AH24">
         <v>2048</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AI24">
         <v>2049</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AJ24">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
-      <c r="A3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="C3" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.24</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0.36</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.43</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.48</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.21</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.37</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.64</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.71</v>
-      </c>
-      <c r="L4" s="11">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.31</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.39</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.47</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.19</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.32</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.39</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.52</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="13">
-        <f>B6-B3</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" ref="C7:L7" si="0">C6-C3</f>
-        <v>9.999999999999995E-3</v>
-      </c>
-      <c r="D7" s="13">
+    <row r="25" spans="1:36">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:H25" si="0">C7</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
+        <v>2.3355179562388431E-2</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="13">
+        <v>3.0832276168732849E-2</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+        <v>4.2396225289574353E-2</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="H7" s="13">
+        <v>5.0699810286784948E-2</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" si="0"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="M7" s="14">
-        <f>L7</f>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" ref="N7:AD7" si="1">M7</f>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="O7" s="14">
+        <v>5.6578478623361093E-2</v>
+      </c>
+      <c r="I25" s="8">
+        <f>I7+C20</f>
+        <v>7.3298146163166392E-2</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" ref="J25:AJ25" si="1">J7+D20</f>
+        <v>6.9598265212907795E-2</v>
+      </c>
+      <c r="K25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="P7" s="14">
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="L25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="Q7" s="14">
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="M25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="R7" s="14">
+        <v>8.5536124138948733E-2</v>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="S7" s="14">
+        <v>9.5536124138948741E-2</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="T7" s="14">
+        <v>0.10553612413894874</v>
+      </c>
+      <c r="P25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="U7" s="14">
+        <v>0.10553612413894874</v>
+      </c>
+      <c r="Q25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="V7" s="14">
+        <v>0.11553612413894873</v>
+      </c>
+      <c r="R25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="W7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="S25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="X7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="Y7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="U25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="Z7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="V25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="AA7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="W25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="AB7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="X25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="AC7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="Y25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-      <c r="AD7" s="14">
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="Z25" s="8">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="L19" t="s">
-        <v>87</v>
-      </c>
-      <c r="N19">
-        <f>15%</f>
-        <v>0.15</v>
-      </c>
-      <c r="O19">
-        <f>10%</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="L20" t="s">
-        <v>88</v>
-      </c>
-      <c r="N20">
-        <f>20%</f>
-        <v>0.2</v>
-      </c>
-      <c r="O20">
-        <f>24%</f>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="L21" t="s">
-        <v>83</v>
-      </c>
-      <c r="N21">
-        <f>N20-N19</f>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="O21">
-        <f>O20-O19</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="P21">
-        <f>AVERAGE(N21:O21)</f>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="B29" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C29" s="8">
-        <v>2023</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2024</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2025</v>
-      </c>
-      <c r="F29" s="8">
-        <v>2026</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2027</v>
-      </c>
-      <c r="H29" s="8">
-        <v>2028</v>
-      </c>
-      <c r="I29" s="8">
-        <v>2029</v>
-      </c>
-      <c r="J29">
-        <v>2030</v>
-      </c>
-      <c r="K29" s="8">
-        <v>2031</v>
-      </c>
-      <c r="L29" s="8">
-        <v>2032</v>
-      </c>
-      <c r="M29" s="9">
-        <v>2033</v>
-      </c>
-      <c r="N29" s="9">
-        <v>2034</v>
-      </c>
-      <c r="O29" s="9">
-        <v>2035</v>
-      </c>
-      <c r="P29" s="9">
-        <v>2036</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>2037</v>
-      </c>
-      <c r="R29" s="9">
-        <v>2038</v>
-      </c>
-      <c r="S29" s="9">
-        <v>2039</v>
-      </c>
-      <c r="T29" s="9">
-        <v>2040</v>
-      </c>
-      <c r="U29" s="9">
-        <v>2041</v>
-      </c>
-      <c r="V29" s="9">
-        <v>2042</v>
-      </c>
-      <c r="W29" s="9">
-        <v>2043</v>
-      </c>
-      <c r="X29" s="9">
-        <v>2044</v>
-      </c>
-      <c r="Y29" s="9">
-        <v>2045</v>
-      </c>
-      <c r="Z29" s="9">
-        <v>2046</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>2047</v>
-      </c>
-      <c r="AB29" s="9">
-        <v>2048</v>
-      </c>
-      <c r="AC29" s="9">
-        <v>2049</v>
-      </c>
-      <c r="AD29" s="9">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="D30" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="F30" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="H30" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0.08</v>
-      </c>
-      <c r="J30" s="16">
-        <f>9%</f>
-        <v>0.09</v>
-      </c>
-      <c r="K30" s="14">
-        <v>0.09</v>
-      </c>
-      <c r="L30" s="14">
-        <f>K30</f>
-        <v>0.09</v>
-      </c>
-      <c r="M30" s="14">
-        <f t="shared" ref="M30:AD30" si="2">L30</f>
-        <v>0.09</v>
-      </c>
-      <c r="N30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="O30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="P30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="Q30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="R30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="S30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="T30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="U30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="V30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="W30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="X30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="Y30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="Z30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="AA30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="AB30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="AD30" s="14">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AC25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AE25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AG25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AH25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AI25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AJ25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12553612413894874</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{62498D34-6E70-EB4B-8A8A-5D0B8DBF03F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2695,8 +3397,8 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2815,145 +3517,145 @@
       <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2">
-        <f>'ZEV Waiver States'!B3</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>'ZEV Waiver States'!C3</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>'ZEV Waiver States'!D3</f>
+      <c r="B2" s="11">
+        <f>'IRA Calculations'!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>'IRA Calculations'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <f>'IRA Calculations'!D25</f>
         <v>2.3355179562388431E-2</v>
       </c>
-      <c r="E2">
-        <f>'ZEV Waiver States'!E3</f>
+      <c r="E2" s="11">
+        <f>'IRA Calculations'!E25</f>
         <v>3.0832276168732849E-2</v>
       </c>
-      <c r="F2">
-        <f>'ZEV Waiver States'!F3</f>
+      <c r="F2" s="11">
+        <f>'IRA Calculations'!F25</f>
         <v>4.2396225289574353E-2</v>
       </c>
-      <c r="G2">
-        <f>'ZEV Waiver States'!G3</f>
+      <c r="G2" s="11">
+        <f>'IRA Calculations'!G25</f>
         <v>5.0699810286784948E-2</v>
       </c>
-      <c r="H2">
-        <f>'ZEV Waiver States'!H3</f>
+      <c r="H2" s="11">
+        <f>'IRA Calculations'!H25</f>
         <v>5.6578478623361093E-2</v>
       </c>
-      <c r="I2">
-        <f>'ZEV Waiver States'!I3 + 'IRA RMI Analysis 30D'!C7</f>
+      <c r="I2" s="11">
+        <f>'IRA Calculations'!I25</f>
         <v>7.3298146163166392E-2</v>
       </c>
-      <c r="J2">
-        <f>'ZEV Waiver States'!J3 + 'IRA RMI Analysis 30D'!D7</f>
+      <c r="J2" s="11">
+        <f>'IRA Calculations'!J25</f>
         <v>6.9598265212907795E-2</v>
       </c>
-      <c r="K2">
-        <f>'ZEV Waiver States'!K3 + 'IRA RMI Analysis 30D'!E7</f>
-        <v>7.5536124138948738E-2</v>
-      </c>
-      <c r="L2">
-        <f>'ZEV Waiver States'!L3 + 'IRA RMI Analysis 30D'!F7</f>
-        <v>7.5536124138948738E-2</v>
-      </c>
-      <c r="M2">
-        <f>'ZEV Waiver States'!M3 + 'IRA RMI Analysis 30D'!G7</f>
-        <v>8.5536124138948746E-2</v>
-      </c>
-      <c r="N2">
-        <f>'ZEV Waiver States'!N3 + 'IRA RMI Analysis 30D'!H7</f>
-        <v>9.5536124138948755E-2</v>
-      </c>
-      <c r="O2">
-        <f>'ZEV Waiver States'!O3 + 'IRA RMI Analysis 30D'!I7</f>
-        <v>0.10553612413894876</v>
-      </c>
-      <c r="P2">
-        <f>'ZEV Waiver States'!P3 + 'IRA RMI Analysis 30D'!J7</f>
-        <v>0.10553612413894876</v>
-      </c>
-      <c r="Q2">
-        <f>'ZEV Waiver States'!Q3 + 'IRA RMI Analysis 30D'!K7</f>
-        <v>0.11553612413894877</v>
-      </c>
-      <c r="R2">
-        <f>'ZEV Waiver States'!R3 + 'IRA RMI Analysis 30D'!L7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="S2">
-        <f>'ZEV Waiver States'!S3 + 'IRA RMI Analysis 30D'!M7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="T2">
-        <f>'ZEV Waiver States'!T3 + 'IRA RMI Analysis 30D'!N7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="U2">
-        <f>'ZEV Waiver States'!U3 + 'IRA RMI Analysis 30D'!O7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="V2">
-        <f>'ZEV Waiver States'!V3 + 'IRA RMI Analysis 30D'!P7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="W2">
-        <f>'ZEV Waiver States'!W3 + 'IRA RMI Analysis 30D'!Q7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="X2">
-        <f>'ZEV Waiver States'!X3 + 'IRA RMI Analysis 30D'!R7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="Y2">
-        <f>'ZEV Waiver States'!Y3 + 'IRA RMI Analysis 30D'!S7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="Z2">
-        <f>'ZEV Waiver States'!Z3 + 'IRA RMI Analysis 30D'!T7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AA2">
-        <f>'ZEV Waiver States'!AA3 + 'IRA RMI Analysis 30D'!U7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AB2">
-        <f>'ZEV Waiver States'!AB3 + 'IRA RMI Analysis 30D'!V7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AC2">
-        <f>'ZEV Waiver States'!AC3 + 'IRA RMI Analysis 30D'!W7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AD2">
-        <f>'ZEV Waiver States'!AD3 + 'IRA RMI Analysis 30D'!X7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AE2">
-        <f>'ZEV Waiver States'!AE3 + 'IRA RMI Analysis 30D'!Y7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AF2">
-        <f>'ZEV Waiver States'!AF3 + 'IRA RMI Analysis 30D'!Z7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AG2">
-        <f>'ZEV Waiver States'!AG3 + 'IRA RMI Analysis 30D'!AA7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AH2">
-        <f>'ZEV Waiver States'!AH3 + 'IRA RMI Analysis 30D'!AB7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AI2">
-        <f>'ZEV Waiver States'!AI3 + 'IRA RMI Analysis 30D'!AC7</f>
-        <v>0.12553612413894866</v>
-      </c>
-      <c r="AJ2">
-        <f>'ZEV Waiver States'!AJ3 + 'IRA RMI Analysis 30D'!AD7</f>
-        <v>0.12553612413894866</v>
+      <c r="K2" s="11">
+        <f>'IRA Calculations'!K25</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="L2" s="11">
+        <f>'IRA Calculations'!L25</f>
+        <v>7.5536124138948738E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <f>'IRA Calculations'!M25</f>
+        <v>8.5536124138948733E-2</v>
+      </c>
+      <c r="N2" s="11">
+        <f>'IRA Calculations'!N25</f>
+        <v>9.5536124138948741E-2</v>
+      </c>
+      <c r="O2" s="11">
+        <f>'IRA Calculations'!O25</f>
+        <v>0.10553612413894874</v>
+      </c>
+      <c r="P2" s="11">
+        <f>'IRA Calculations'!P25</f>
+        <v>0.10553612413894874</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>'IRA Calculations'!Q25</f>
+        <v>0.11553612413894873</v>
+      </c>
+      <c r="R2" s="11">
+        <f>'IRA Calculations'!R25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="S2" s="11">
+        <f>'IRA Calculations'!S25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="T2" s="11">
+        <f>'IRA Calculations'!T25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="U2" s="11">
+        <f>'IRA Calculations'!U25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="V2" s="11">
+        <f>'IRA Calculations'!V25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="W2" s="11">
+        <f>'IRA Calculations'!W25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="X2" s="11">
+        <f>'IRA Calculations'!X25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>'IRA Calculations'!Y25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>'IRA Calculations'!Z25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>'IRA Calculations'!AA25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>'IRA Calculations'!AB25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>'IRA Calculations'!AC25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AD2" s="11">
+        <f>'IRA Calculations'!AD25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>'IRA Calculations'!AE25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>'IRA Calculations'!AF25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AG2" s="11">
+        <f>'IRA Calculations'!AG25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AH2" s="11">
+        <f>'IRA Calculations'!AH25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AI2" s="11">
+        <f>'IRA Calculations'!AI25</f>
+        <v>0.12553612413894874</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f>'IRA Calculations'!AJ25</f>
+        <v>0.12553612413894874</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -3518,9 +4220,7 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
